--- a/FRD4P/Test/final_selection_df.xlsx
+++ b/FRD4P/Test/final_selection_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NOSH_x</t>
+          <t>NOSH</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -516,32 +516,87 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>ISIN Code:</t>
+          <t>Symbol</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Free Float Round:</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Isin Code</t>
+          <t>FX Rate</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>FX/Index Ccy</t>
+          <t>Free Float</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Close Prc</t>
+          <t>Price in Index Currency</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NOSH_y</t>
+          <t>Original market cap</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Mcap 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Weight 1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mcap 2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Weight 2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Mcap 3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Weight 3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Final Capping</t>
         </is>
       </c>
     </row>
@@ -608,25 +663,56 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>FR0000131104</t>
+          <t>BNPP.PA</t>
         </is>
       </c>
       <c r="R2" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.9500000000000001</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FR0000131104</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>64.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1130810671</v>
+        <v>69236710358.6525</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.09519893120396501</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.09627634583756375</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.09627634583756374</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.09627634583756374</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="3">
@@ -692,25 +778,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>FR0000121014</t>
+          <t>LVMH.PA</t>
         </is>
       </c>
       <c r="R3" t="n">
+        <v>607.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FR0000121014</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>607.7</v>
       </c>
       <c r="V3" t="n">
-        <v>500141700</v>
+        <v>151968055545</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2089526840614955</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>143829119720.5756</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>143829119720.5756</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>143829119720.5756</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.874916188018275</v>
       </c>
     </row>
     <row r="4">
@@ -776,25 +893,56 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>FR0006174348</t>
+          <t>BVI.PA</t>
         </is>
       </c>
       <c r="R4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.75</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>FR0006174348</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>30.2</v>
       </c>
       <c r="V4" t="n">
-        <v>453871520</v>
+        <v>10280189928</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01413503167105718</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0142950050003391</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0142950050003391</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0142950050003391</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="5">
@@ -860,25 +1008,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>FR0000125007</t>
+          <t>SGOB.PA</t>
         </is>
       </c>
       <c r="R5" t="n">
+        <v>80.78</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.9</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>FR0000125007</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>80.78</v>
       </c>
       <c r="V5" t="n">
-        <v>504005802</v>
+        <v>36642229817.004</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.05038224805076845</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.05095244952926192</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.05095244952926192</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.05095244952926192</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="6">
@@ -944,25 +1123,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>FR0000052292</t>
+          <t>HRMS.PA</t>
         </is>
       </c>
       <c r="R6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>FR0000052292</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>1926</v>
       </c>
       <c r="V6" t="n">
-        <v>105569412</v>
+        <v>60998006253.60001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.08387089696831332</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.08482010648762092</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.08482010648762091</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.08482010648762091</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="7">
@@ -1028,17 +1238,56 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>FR0000120172</t>
+          <t>CARR.PA</t>
         </is>
       </c>
       <c r="R7" t="n">
+        <v>15.415</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.8</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>15.415</v>
+      </c>
       <c r="V7" t="n">
-        <v>677969188</v>
+        <v>8360716026.415999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01149579790391063</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.01162590168480319</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.01162590168480319</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.01162590168480319</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="8">
@@ -1104,25 +1353,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>FR0000120321</t>
+          <t>OREP.PA</t>
         </is>
       </c>
       <c r="R8" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.45</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>FR0000120321</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>368.35</v>
       </c>
       <c r="V8" t="n">
-        <v>534955898</v>
+        <v>88672952262.73502</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1219233299558064</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.123303198177121</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.123303198177121</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.123303198177121</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="9">
@@ -1188,25 +1468,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>FR0000045072</t>
+          <t>CAGR.PA</t>
         </is>
       </c>
       <c r="R9" t="n">
+        <v>14.365</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.3</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>FR0000045072</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>14.365</v>
       </c>
       <c r="V9" t="n">
-        <v>3025902350</v>
+        <v>13040126177.325</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0179298824050939</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.01813280398664574</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.01813280398664573</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01813280398664573</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="10">
@@ -1272,25 +1583,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>FR0000130452</t>
+          <t>FOUG.PA</t>
         </is>
       </c>
       <c r="R10" t="n">
+        <v>93.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
         <v>0.75</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>FR0000130452</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>93.22</v>
       </c>
       <c r="V10" t="n">
-        <v>98000000</v>
+        <v>6851670000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.009420893303327731</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.009527514335499096</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.009527514335499095</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.009527514335499095</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="11">
@@ -1356,25 +1698,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>FR0000120404</t>
+          <t>ACCP.PA</t>
         </is>
       </c>
       <c r="R11" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>FR0000120404</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>38.72</v>
       </c>
       <c r="V11" t="n">
-        <v>243622860</v>
+        <v>8018115568.32</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01102472992174079</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.01114950238713442</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.01114950238713442</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.01114950238713442</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="12">
@@ -1440,25 +1813,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>FR0000130577</t>
+          <t>PUBP.PA</t>
         </is>
       </c>
       <c r="R12" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
         <v>0.9</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>FR0000130577</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>97.42</v>
       </c>
       <c r="V12" t="n">
-        <v>254311860</v>
+        <v>22297555261.08</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03065864074593327</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.03100562014757322</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.03100562014757322</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.03100562014757322</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="13">
@@ -1524,25 +1928,56 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>FR0000125486</t>
+          <t>SGEF.PA</t>
         </is>
       </c>
       <c r="R13" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.9</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>FR0000125486</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>110.6</v>
       </c>
       <c r="V13" t="n">
-        <v>588519218</v>
+        <v>58581202959.71999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0805478463884146</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.08145944725731309</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.08145944725731308</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.08145944725731308</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="14">
@@ -1608,17 +2043,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>FR0000044448</t>
+          <t>NEXS.PA</t>
         </is>
       </c>
       <c r="R14" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.75</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>128.9</v>
+      </c>
       <c r="V14" t="n">
-        <v>43753380</v>
+        <v>4229858011.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.00581596034464116</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.005881782520420854</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.005881782520420853</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.005881782520420853</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="15">
@@ -1684,25 +2158,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>FR0000120628</t>
+          <t>AXAF.PA</t>
         </is>
       </c>
       <c r="R15" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>FR0000120628</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>36.15</v>
       </c>
       <c r="V15" t="n">
-        <v>2200619258</v>
+        <v>67619528250.19501</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.09297534190444701</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.09402759104910469</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.09402759104910467</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.09402759104910467</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="16">
@@ -1768,25 +2273,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>FR0000120644</t>
+          <t>DANO.PA</t>
         </is>
       </c>
       <c r="R16" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.9500000000000001</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>FR0000120644</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>64.7</v>
       </c>
       <c r="V16" t="n">
-        <v>679553991</v>
+        <v>41768786056.81501</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.05743114844275588</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.05808112590546535</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.05808112590546535</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.05808112590546535</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="17">
@@ -1852,25 +2388,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>FR0010451203</t>
+          <t>RXL.PA</t>
         </is>
       </c>
       <c r="R17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.7000000000000001</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>FR0010451203</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>25.7</v>
       </c>
       <c r="V17" t="n">
-        <v>301735000</v>
+        <v>5428212650.000001</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.007463671222260249</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.007548141378527068</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.007548141378527066</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.007548141378527066</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="18">
@@ -1936,17 +2503,56 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>FR001400AJ45</t>
+          <t>MICP.PA</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+        <v>36.43</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>36.43</v>
+      </c>
       <c r="V18" t="n">
-        <v>714958226</v>
+        <v>26045928173.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.03581256982686944</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.03621787886038765</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.03621787886038765</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.03621787886038765</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="19">
@@ -2012,25 +2618,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>FR0010313833</t>
+          <t>AKE.PA</t>
         </is>
       </c>
       <c r="R19" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.75</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>FR0010313833</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="V19" t="n">
-        <v>75043514</v>
+        <v>4581406529.700001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.006299331709710578</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.006370624444619476</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.006370624444619475</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.006370624444619475</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="20">
@@ -2096,25 +2733,56 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>FR0000121485</t>
+          <t>PRTP.PA</t>
         </is>
       </c>
       <c r="R20" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
         <v>0.6000000000000001</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>FR0000121485</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>229.65</v>
       </c>
       <c r="V20" t="n">
-        <v>123420778</v>
+        <v>17006149000.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.02338307525542452</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.02364771338885859</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.02364771338885858</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.02364771338885858</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>3.037600617988628</v>
       </c>
     </row>
     <row r="21">
@@ -2180,25 +2848,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>FR0000120693</t>
+          <t>PERP.PA</t>
         </is>
       </c>
       <c r="R21" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.8</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>FR0000120693</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>126.6</v>
       </c>
       <c r="V21" t="n">
-        <v>253328748</v>
+        <v>25657135597.44</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.03527798871406446</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.03567724762174095</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.03567724762174095</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.03567724762174095</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.037600617988629</v>
       </c>
     </row>
     <row r="22">
@@ -2264,25 +2963,56 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>NL0000379121</t>
+          <t>RAND.AS</t>
         </is>
       </c>
       <c r="R22" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.5</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>NL0000379121</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>43.14</v>
       </c>
       <c r="V22" t="n">
-        <v>180869312</v>
+        <v>3901351059.84</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.002677306426445754</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3901351059.84</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.002677306426445754</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>3901351059.84</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.002677306426445754</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3901351059.84</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.002677306426445754</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="23">
@@ -2348,25 +3078,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>CA12532H1047</t>
+          <t>/GIBa.TO</t>
         </is>
       </c>
       <c r="R23" t="n">
+        <v>155.93</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.66148503</v>
+      </c>
+      <c r="T23" t="n">
         <v>0.9</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>CA12532H1047</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>0.66148503</v>
-      </c>
       <c r="U23" t="n">
-        <v>155.93</v>
+        <v>103.1453607279</v>
       </c>
       <c r="V23" t="n">
-        <v>201180500</v>
+        <v>18675751719.52736</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.01281625501793385</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18675751719.52736</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.01281625501793385</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>18675751719.52736</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.01281625501793385</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>18675751719.52736</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.01281625501793385</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="24">
@@ -2432,25 +3193,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>IE00B4BNMY34</t>
+          <t>ACN.N</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>IE00B4BNMY34</t>
-        </is>
+        <v>337.04</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.89891681</v>
       </c>
       <c r="T24" t="n">
-        <v>0.89891681</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>337.04</v>
+        <v>302.9709216424</v>
       </c>
       <c r="V24" t="n">
-        <v>626384400</v>
+        <v>189776258970.4218</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.1302341650200485</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>189776258970.4218</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.1302341650200485</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>189776258970.4218</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1302341650200485</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>189776258970.4218</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.1302341650200485</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="25">
@@ -2516,16 +3308,14 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>ES0109067019</t>
+          <t>AMA.MC</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>ES0109067019</t>
-        </is>
+        <v>65.18000000000001</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -2534,7 +3324,40 @@
         <v>65.18000000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>450499200</v>
+        <v>29363537856</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.02015075992886323</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>29363537856</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.02015075992886323</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29363537856</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.02015075992886323</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>29363537856</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.02015075992886323</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="26">
@@ -2600,25 +3423,56 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>JP3633400001</t>
+          <t>/7203.T</t>
         </is>
       </c>
       <c r="R26" t="n">
+        <v>2406</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.00634358</v>
+      </c>
+      <c r="T26" t="n">
         <v>0.8</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>JP3633400001</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>0.00634358</v>
-      </c>
       <c r="U26" t="n">
-        <v>2406</v>
+        <v>15.26265348</v>
       </c>
       <c r="V26" t="n">
-        <v>15794987000</v>
+        <v>192858730641.6838</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1323495145715819</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>192858730641.6838</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1323495145715819</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>192858730641.6838</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1323495145715819</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>192858730641.6838</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1323495145715819</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="27">
@@ -2684,25 +3538,56 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>GB00B1YW4409</t>
+          <t>III.L</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>GB00B1YW4409</t>
-        </is>
+        <v>3255</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01185326</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01185326</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>3255</v>
+        <v>38.5823613</v>
       </c>
       <c r="V27" t="n">
-        <v>973383700</v>
+        <v>37555441596.93081</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02577246281948147</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>37555441596.93081</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02577246281948147</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>37555441596.93081</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.02577246281948147</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>37555441596.93081</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.02577246281948147</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="28">
@@ -2768,25 +3653,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>CH0014852781</t>
+          <t>SLHN.S</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>CH0014852781</t>
-        </is>
+        <v>706.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.06185293</v>
       </c>
       <c r="T28" t="n">
-        <v>1.06185293</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>706.6</v>
+        <v>750.305280338</v>
       </c>
       <c r="V28" t="n">
-        <v>28727518</v>
+        <v>21554408446.40494</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.01479173634124668</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>21554408446.40494</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.01479173634124668</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21554408446.40494</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01479173634124668</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>21554408446.40494</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.01479173634124668</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="29">
@@ -2852,16 +3768,14 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>DE0006599905</t>
+          <t>MRCG.DE</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>DE0006599905</t>
-        </is>
+        <v>166.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2870,7 +3784,40 @@
         <v>166.65</v>
       </c>
       <c r="V29" t="n">
-        <v>129242250</v>
+        <v>21538220962.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.01478062766273456</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>21538220962.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.01478062766273456</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21538220962.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.01478062766273456</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>21538220962.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.01478062766273456</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="30">
@@ -2936,25 +3883,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>SE0000163594</t>
+          <t>SECUb.ST</t>
         </is>
       </c>
       <c r="R30" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0882671</v>
+      </c>
+      <c r="T30" t="n">
         <v>0.85</v>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>SE0000163594</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0882671</v>
-      </c>
       <c r="U30" t="n">
-        <v>124.25</v>
+        <v>10.967187175</v>
       </c>
       <c r="V30" t="n">
-        <v>546454160</v>
+        <v>5094105296.985788</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.003495835324589</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5094105296.985788</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.003495835324589</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5094105296.985788</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.003495835324589</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>5094105296.985788</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.003495835324589</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3998,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>GB00BN7SWP63</t>
+          <t>GSK.L</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+        <v>1609.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.01185326</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>19.07782197</v>
+      </c>
       <c r="V31" t="n">
-        <v>4145058000</v>
+        <v>79078678579.32425</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.05426782955644751</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>79078678579.32425</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.05426782955644751</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>79078678579.32425</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.05426782955644751</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>79078678579.32425</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.05426782955644751</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="32">
@@ -3096,17 +4113,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>US29444U7000</t>
+          <t>EQIX.O</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+        <v>864.33</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>776.9607663873001</v>
+      </c>
       <c r="V32" t="n">
-        <v>94944990</v>
+        <v>73768532195.03455</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.05062373579970428</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>73768532195.03455</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.05062373579970428</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>73768532195.03455</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.05062373579970428</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>73768532195.03455</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.05062373579970428</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="33">
@@ -3172,17 +4228,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>US3703341046</t>
+          <t>GIS.N</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+        <v>74.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>66.969302345</v>
+      </c>
       <c r="V33" t="n">
-        <v>558145700</v>
+        <v>37378628135.86167</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.02565112438868106</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>37378628135.86167</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.02565112438868106</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>37378628135.86167</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.02565112438868106</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>37378628135.86167</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.02565112438868106</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="34">
@@ -3248,17 +4343,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>CH0038863350</t>
+          <t>NESN.S</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+        <v>86.45999999999999</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.06185293</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>91.80780432779999</v>
+      </c>
       <c r="V34" t="n">
-        <v>2620000000</v>
+        <v>240536447338.836</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.1650683997356308</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>240536447338.836</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.1650683997356308</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>240536447338.836</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1650683997356308</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>240536447338.836</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.1650683997356308</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="35">
@@ -3324,17 +4458,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>US8835561023</t>
+          <t>TMO.N</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+        <v>610.49</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>548.7797233369</v>
+      </c>
       <c r="V35" t="n">
-        <v>381995570</v>
+        <v>209631423220.5214</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.1438597931754158</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>209631423220.5214</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.1438597931754158</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>209631423220.5214</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.1438597931754158</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>209631423220.5214</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.1438597931754158</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="36">
@@ -3400,17 +4573,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>JE00BJ1F3079</t>
+          <t>AMCR.N</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+        <v>10.99</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9.879095741900001</v>
+      </c>
       <c r="V36" t="n">
-        <v>1445343300</v>
+        <v>14278684840.6137</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.009798763069154922</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14278684840.6137</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.009798763069154922</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14278684840.6137</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.009798763069154922</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>14278684840.6137</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.009798763069154922</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="37">
@@ -3476,17 +4688,56 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>US2193501051</t>
+          <t>GLW.N</t>
         </is>
       </c>
       <c r="R37" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T37" t="n">
         <v>0.9</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>38.923097873</v>
+      </c>
       <c r="V37" t="n">
-        <v>855700800</v>
+        <v>29975873389.56396</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.0205709758576546</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29975873389.56396</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.0205709758576546</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29975873389.56396</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0205709758576546</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>29975873389.56396</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0205709758576546</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="38">
@@ -3552,17 +4803,56 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>US09260D1072</t>
+          <t>BX.N</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+        <v>155.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>139.3770513905</v>
+      </c>
       <c r="V38" t="n">
-        <v>720076700</v>
+        <v>100362167221.0017</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.06887364688576139</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>100362167221.0017</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.06887364688576139</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>100362167221.0017</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.06887364688576139</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>100362167221.0017</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.06887364688576139</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="39">
@@ -3628,17 +4918,56 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>US98956P1021</t>
+          <t>ZBH.N</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+        <v>106.24</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>95.50092189439999</v>
+      </c>
       <c r="V39" t="n">
-        <v>203652370</v>
+        <v>19448989080.97945</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.01334689000187414</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>19448989080.97945</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.01334689000187414</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19448989080.97945</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.01334689000187414</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>19448989080.97945</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.01334689000187414</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="40">
@@ -3704,25 +5033,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>DE0007236101</t>
+          <t>SIEGn.DE</t>
         </is>
       </c>
       <c r="R40" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
         <v>0.95</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>DE0007236101</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>166.36</v>
       </c>
       <c r="V40" t="n">
-        <v>800000000</v>
+        <v>126433600000</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.08676519610940993</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>126433600000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.08676519610940993</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>126433600000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.08676519610940993</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>126433600000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.08676519610940993</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
     <row r="41">
@@ -3788,17 +5148,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>GB0033195214</t>
+          <t>KGF.L</t>
         </is>
       </c>
       <c r="R41" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.01185326</v>
+      </c>
+      <c r="T41" t="n">
         <v>0.85</v>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>3.827417654</v>
+      </c>
       <c r="V41" t="n">
-        <v>1838668600</v>
+        <v>5981749760.571144</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.004104982307340542</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>5981749760.571144</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.004104982307340542</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>5981749760.571144</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.004104982307340542</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>5981749760.571144</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.004104982307340542</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.499099806198082</v>
       </c>
     </row>
   </sheetData>
